--- a/src/main/resources/templates/excel/TemplateAdiraFinance.xlsx
+++ b/src/main/resources/templates/excel/TemplateAdiraFinance.xlsx
@@ -7,15 +7,11 @@
     <workbookView windowWidth="28800" windowHeight="12180" tabRatio="845"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="10" r:id="rId1"/>
+    <sheet name="Adira Finance" sheetId="10" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$AH$5</definedName>
-    <definedName name="HARI">[1]LEMBUR!$AF$7:$AG$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AA$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Adira Finance'!$A$4:$AH$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Adira Finance'!$A$1:$AA$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1186,109 +1182,6 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="jhc"/>
-      <sheetName val="smg"/>
-      <sheetName val="denpasar"/>
-      <sheetName val="ygy"/>
-      <sheetName val="plb"/>
-      <sheetName val="makassar"/>
-      <sheetName val="ptk"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="alva"/>
-      <sheetName val="LEMBUR"/>
-      <sheetName val="Slamet"/>
-      <sheetName val="Admin"/>
-      <sheetName val="libur nasional"/>
-      <sheetName val="NPK"/>
-      <sheetName val="Contoh Pengisian"/>
-      <sheetName val="All"/>
-      <sheetName val="ASTRA WORLD"/>
-      <sheetName val="REKAP LEMBUR MARET"/>
-      <sheetName val="CATATAN AWO WILAYAH"/>
-      <sheetName val="SALARY 2013"/>
-      <sheetName val="REKAP LEMBUR AGUSTUS"/>
-      <sheetName val="ABSEN LEMBUR CABANG"/>
-      <sheetName val="REKAP LEMBUR OKTOBER"/>
-      <sheetName val="REKAP KEHADIRAN CABANG"/>
-      <sheetName val="Petunjuk Pengisian"/>
-      <sheetName val="Mei 2016"/>
-      <sheetName val="Form Lembur"/>
-      <sheetName val="StaffOk"/>
-      <sheetName val="RESIGN"/>
-      <sheetName val="JAMINAN_AKTIF"/>
-      <sheetName val="JAMINAN_RESIGN"/>
-      <sheetName val="REFERENSI"/>
-      <sheetName val="Calendar"/>
-      <sheetName val="ACC"/>
-      <sheetName val="Lampiran I (Current)"/>
-      <sheetName val="ACCIF&amp;IV"/>
-      <sheetName val="Data"/>
-      <sheetName val="DataNo"/>
-      <sheetName val="FO AlC 5"/>
-      <sheetName val="OT"/>
-      <sheetName val="STANDAR"/>
-      <sheetName val="ISI1107A"/>
-      <sheetName val="ISI1107B"/>
-      <sheetName val="gecikme Ocak"/>
-      <sheetName val="saltab jakarta"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/src/main/resources/templates/excel/TemplateAdiraFinance.xlsx
+++ b/src/main/resources/templates/excel/TemplateAdiraFinance.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" tabRatio="845"/>
+    <workbookView windowWidth="14400" windowHeight="12180" tabRatio="845"/>
   </bookViews>
   <sheets>
     <sheet name="Adira Finance" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Adira Finance'!$A$4:$AH$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Adira Finance'!$A$4:$AA$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Adira Finance'!$A$1:$AA$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1448,7 +1448,7 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
@@ -1712,7 +1712,7 @@
       <c r="AA5" s="31"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A4:AH5" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A4:AA5" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="17">

--- a/src/main/resources/templates/excel/TemplateAdiraFinance.xlsx
+++ b/src/main/resources/templates/excel/TemplateAdiraFinance.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12180" tabRatio="845"/>
+    <workbookView windowWidth="28800" windowHeight="12180" tabRatio="845"/>
   </bookViews>
   <sheets>
-    <sheet name="Adira Finance" sheetId="10" r:id="rId1"/>
+    <sheet name="INVOICE" sheetId="11" r:id="rId1"/>
+    <sheet name="Adira Finance" sheetId="10" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Adira Finance'!$A$4:$AA$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Adira Finance'!$A$1:$AA$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Adira Finance'!$A$4:$AA$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +54,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+  <si>
+    <t xml:space="preserve">Invoice PT Adira Dinamika Multi Finance </t>
+  </si>
+  <si>
+    <t>Periode April 2025</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Total Invoice</t>
+  </si>
+  <si>
+    <t>Management fee (5%)</t>
+  </si>
+  <si>
+    <t>Grand Total Invoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biaya Tenaga kerja PWKT Adira Finance </t>
+  </si>
+  <si>
+    <t>Jakarta, 21 April 2025</t>
+  </si>
+  <si>
+    <t>Dibuat Oleh,</t>
+  </si>
+  <si>
+    <t>Diperiksa Oleh,</t>
+  </si>
+  <si>
+    <t>Dikonfrimasi Oleh,</t>
+  </si>
+  <si>
+    <t>Disetujui Oleh,</t>
+  </si>
+  <si>
+    <t>HR Comben</t>
+  </si>
+  <si>
+    <t>Business Development</t>
+  </si>
+  <si>
+    <t>Manager Business Development</t>
+  </si>
+  <si>
+    <t>Direktur</t>
+  </si>
+  <si>
+    <t>Diverivikasi Oleh,</t>
+  </si>
+  <si>
+    <t>Diketahui Oleh,</t>
+  </si>
+  <si>
+    <t>Manager Finance &amp; Accounting</t>
+  </si>
   <si>
     <t>Job</t>
   </si>
@@ -147,7 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="13">
+  <numFmts count="14">
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
@@ -161,8 +221,9 @@
     <numFmt numFmtId="186" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="187" formatCode="[$-409]mmmm\-yy;@"/>
     <numFmt numFmtId="188" formatCode="mmmm\ yyyy"/>
+    <numFmt numFmtId="189" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +267,38 @@
       <scheme val="major"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -599,7 +692,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -637,6 +730,77 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -758,179 +922,179 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="25" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="25" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="29" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="29" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="25" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="182" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="29" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="68" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1019,6 +1183,43 @@
     <xf numFmtId="180" fontId="5" fillId="7" borderId="3" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="189" fontId="6" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="80">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1131,6 +1332,43 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1685925" cy="742950"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image1.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="44450" y="219075"/>
+          <a:ext cx="1685925" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1441,13 +1679,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A7:E37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.7142857142857" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="7.42857142857143" customWidth="1"/>
+    <col min="2" max="2" width="37.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="40.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="24.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" customFormat="1" spans="1:2">
+      <c r="A7" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="32"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:2">
+      <c r="A8" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="32"/>
+    </row>
+    <row r="9" ht="15.75"/>
+    <row r="10" spans="1:5">
+      <c r="A10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="36">
+        <v>1</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="41"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+    </row>
+    <row r="14" customFormat="1" spans="1:1">
+      <c r="A14" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+    </row>
+    <row r="24" ht="15.75" spans="1:5">
+      <c r="A24" s="44"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+    </row>
+    <row r="25" ht="15.75" spans="1:5">
+      <c r="A25" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="4:5">
+      <c r="D29" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="4:5">
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+    </row>
+    <row r="31" customFormat="1" spans="4:5">
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+    </row>
+    <row r="32" customFormat="1" spans="4:5">
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+    </row>
+    <row r="33" customFormat="1" spans="4:5">
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+    </row>
+    <row r="34" customFormat="1" spans="4:5">
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+    </row>
+    <row r="35" customFormat="1" spans="4:5">
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+    </row>
+    <row r="36" customFormat="1" spans="4:5">
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+    </row>
+    <row r="37" customFormat="1" spans="4:5">
+      <c r="D37" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
@@ -1484,7 +1934,7 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1515,7 +1965,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="5" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="9">
@@ -1579,7 +2029,7 @@
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
       <c r="X3" s="6" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
@@ -1587,85 +2037,85 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="60" customHeight="1" spans="1:27">
       <c r="A4" s="12" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="O4" s="20" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="26" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="R4" s="26" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="S4" s="26" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="T4" s="26" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="U4" s="26" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="V4" s="26" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="W4" s="26" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="X4" s="26" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="Y4" s="31" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="Z4" s="31" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="AA4" s="31" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:27">

--- a/src/main/resources/templates/excel/TemplateAdiraFinance.xlsx
+++ b/src/main/resources/templates/excel/TemplateAdiraFinance.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" tabRatio="845"/>
+    <workbookView windowWidth="28800" windowHeight="12180" tabRatio="845" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INVOICE" sheetId="11" r:id="rId1"/>
@@ -1329,6 +1329,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1682,7 +1689,7 @@
   <sheetPr/>
   <dimension ref="A7:E37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1897,7 +1904,7 @@
   </sheetPr>
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
